--- a/teste_outro.xlsx
+++ b/teste_outro.xlsx
@@ -1,78 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">nome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dia nasc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marcos</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -80,45 +56,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -229,47 +261,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="n">
+    <row r="1" ht="12.8" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>nome</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>dia nasc</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>idade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>49</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>jaburu</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>jair</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>zero1</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>gerulino</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>tomcrute</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lula</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/teste_outro.xlsx
+++ b/teste_outro.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet_name_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet_name_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_name_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_name_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -815,4 +816,125 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Descricao</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Qtde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>COTOVELO/JOELHO 90 PVC ROSCAVEL 3/4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CAFÉ EM PO PACOTE C/ 500G - MARCA QUITADA, BRASILEIRO OU SIMILAR</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AREIA LAVADA (M³)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ARQUIVO MORTO POLIONDA AZUL - PRE  MONTADO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CAPA DE PAPEL P/CD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ESPONJA DE LÃ DE AÇO - 60G PCT C/ 8 UNIDADES</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>